--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>_id</t>
   </si>
@@ -394,9 +394,6 @@
     <t>福建 厦门</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a23</t>
-  </si>
-  <si>
     <t>地瓜1号 超好吃 ！山东农家自制无糖红心地瓜干 地瓜枣 香甜软糯</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>山东 青岛</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a24</t>
-  </si>
-  <si>
     <t>包邮阿依郎冰粉粉40g*10四川水果味自制红糖水信冰粉玄饼小吃原料</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>四川 成都</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a25</t>
-  </si>
-  <si>
     <t>优选食材 野生桃胶100克 天然桃花泪   可搭配皂角米雪燕银耳</t>
   </si>
   <si>
@@ -430,9 +421,6 @@
     <t>广东 广州</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a26</t>
-  </si>
-  <si>
     <t>香港代购 楼上正品 马铃薯条 土豆条 薯条 170g/瓶</t>
   </si>
   <si>
@@ -442,9 +430,6 @@
     <t>广东 深圳</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a27</t>
-  </si>
-  <si>
     <t>等记等茶| 【奶香蜜桃乌龙茶。10泡】水果花果果粒茶/ 等记白桃</t>
   </si>
   <si>
@@ -454,9 +439,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a28</t>
-  </si>
-  <si>
     <t>神农金康正品菊苣橘红栀子茶非同仁堂亮嗓八音鹁鸪丁金蒲菊180g</t>
   </si>
   <si>
@@ -466,9 +448,6 @@
     <t>湖南 长沙</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a29</t>
-  </si>
-  <si>
     <t>10袋包邮 蜀香重庆酸辣粉调料150g 酸辣面调料 酸辣粉粉条红薯</t>
   </si>
   <si>
@@ -478,9 +457,6 @@
     <t>四川 成都</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a2a</t>
-  </si>
-  <si>
     <t>日本原装日清薄力粉特选精选紫罗兰低筋面粉小麦粉蛋糕粉烘焙1kg</t>
   </si>
   <si>
@@ -490,9 +466,6 @@
     <t>广东 深圳</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a2b</t>
-  </si>
-  <si>
     <t>水晶紫薯仔500g包邮独立包装连城地瓜干甘薯番薯紫薯干吃不胖零食</t>
   </si>
   <si>
@@ -502,9 +475,6 @@
     <t>福建 龙岩</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a2c</t>
-  </si>
-  <si>
     <t>进口蓝威斯顿冷冻辣味薯格2043g必胜客薯网 薯类制品薯条油炸小吃</t>
   </si>
   <si>
@@ -514,9 +484,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a2d</t>
-  </si>
-  <si>
     <t>伊田农家 胚芽米绿米绿糙米原生态绿香米糯米传统稻 自家种值500g</t>
   </si>
   <si>
@@ -526,9 +493,6 @@
     <t>浙江 温州</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a2e</t>
-  </si>
-  <si>
     <t>红心地瓜干 地瓜条 番薯干 红薯干 山芋干 紫薯条 散称 250g/袋</t>
   </si>
   <si>
@@ -538,9 +502,6 @@
     <t>江苏 无锡</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a2f</t>
-  </si>
-  <si>
     <t>星派 原味软糯红薯干紫薯条红薯片紫薯片共920g连城地瓜干小零食</t>
   </si>
   <si>
@@ -550,9 +511,6 @@
     <t>福建 龙岩</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a30</t>
-  </si>
-  <si>
     <t>凉皮干凉皮 干货牛筋面干凉皮干面皮速食干凉皮 包邮免运费 散装</t>
   </si>
   <si>
@@ -562,9 +520,6 @@
     <t>河南 新乡</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a31</t>
-  </si>
-  <si>
     <t>【天天特价】番薯干天然无添加倒蒸红薯紫薯干地瓜干红薯条1000g</t>
   </si>
   <si>
@@ -574,9 +529,6 @@
     <t>山东 日照</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a32</t>
-  </si>
-  <si>
     <t>蓝威斯顿Y67 速冻/冷冻 辣味薯格带皮薯格</t>
   </si>
   <si>
@@ -586,9 +538,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a33</t>
-  </si>
-  <si>
     <t>香软地瓜干红薯紫薯片自制番薯干休闲零食粗粮无糖无油纯手工200g</t>
   </si>
   <si>
@@ -598,9 +547,6 @@
     <t>辽宁 本溪</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a34</t>
-  </si>
-  <si>
     <t>【锅炒红薯干 地瓜条番薯干农家自制嘎嘣脆 非油炸无糖小时候零食</t>
   </si>
   <si>
@@ -610,9 +556,6 @@
     <t>陕西 西安</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a35</t>
-  </si>
-  <si>
     <t>包邮蓝威斯顿粗薯冷冻原味冷冻薯条油炸薯条1一袋3/8奶茶咖啡2kg</t>
   </si>
   <si>
@@ -622,9 +565,6 @@
     <t>安徽 宣城</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a36</t>
-  </si>
-  <si>
     <t>红薯干 地瓜干纯农家自制天然新晒番薯干零食整个小红薯2份包邮</t>
   </si>
   <si>
@@ -634,9 +574,6 @@
     <t>河北 石家庄</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a37</t>
-  </si>
-  <si>
     <t>比利时路多萨薯球2.5Kg 西餐油炸土豆球 肯德基薯条冷冻薯球特价</t>
   </si>
   <si>
@@ -646,9 +583,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a38</t>
-  </si>
-  <si>
     <t>朱小二香脆薯条300g*1袋红薯干纯农家自制山芋条片天然无糖地瓜干</t>
   </si>
   <si>
@@ -658,9 +592,6 @@
     <t>山东 临沂</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a39</t>
-  </si>
-  <si>
     <t>买2件减2元农家倒蒸地瓜干500g包邮红薯干原味番薯干红薯片零食包</t>
   </si>
   <si>
@@ -670,9 +601,6 @@
     <t>山东 德州</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a3a</t>
-  </si>
-  <si>
     <t>辛普劳冷冻油炸薯条太阳谷1/4麦当劳肯德基油炸炸薯条薯条半成品</t>
   </si>
   <si>
@@ -682,9 +610,6 @@
     <t>广东 深圳</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a3b</t>
-  </si>
-  <si>
     <t>朱小二炒地瓜片160g*1袋红薯片紫薯片地瓜干纯农家自制天然红薯干</t>
   </si>
   <si>
@@ -694,9 +619,6 @@
     <t>山东 临沂</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a3c</t>
-  </si>
-  <si>
     <t>连城地瓜干水晶薯仔紫薯棒500gX2袋包邮独立小包装软番薯甘薯零食</t>
   </si>
   <si>
@@ -706,9 +628,6 @@
     <t>福建 龙岩</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a3d</t>
-  </si>
-  <si>
     <t>【天猫超市】栗源地瓜干薯类制品80G*3红薯干甘薯条农家自制零食</t>
   </si>
   <si>
@@ -718,9 +637,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a3e</t>
-  </si>
-  <si>
     <t>金桔红薯干 番薯糕 金桔香地瓜片 金薯片 孩子爱的天然零食400克</t>
   </si>
   <si>
@@ -730,9 +646,6 @@
     <t>湖南 长沙</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a3f</t>
-  </si>
-  <si>
     <t>【三统万福】黄金地瓜条 冷冻油炸小吃店 甘梅番薯条 台湾美食</t>
   </si>
   <si>
@@ -742,9 +655,6 @@
     <t>山东 青岛</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a40</t>
-  </si>
-  <si>
     <t>湖南农家自制无糖红薯干 倒蒸偏软地瓜干 番薯干</t>
   </si>
   <si>
@@ -754,9 +664,6 @@
     <t>湖南 邵阳</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a41</t>
-  </si>
-  <si>
     <t>伊莱紫心番薯干 包邮零食紫薯条紫薯干紫薯片紫薯仔地瓜干 番薯片</t>
   </si>
   <si>
@@ -766,9 +673,6 @@
     <t>浙江 杭州</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a42</t>
-  </si>
-  <si>
     <t>厂家直发紫薯干散装连城紫薯仔紫色薯子地瓜干 地瓜干500g番薯仔</t>
   </si>
   <si>
@@ -778,9 +682,6 @@
     <t>广东 揭阳</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a43</t>
-  </si>
-  <si>
     <t>遂昌黄沙腰圆饼番薯干红薯地瓜条山芋枣高山番薯制作甜糯休闲零食</t>
   </si>
   <si>
@@ -790,9 +691,6 @@
     <t>浙江 丽水</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a44</t>
-  </si>
-  <si>
     <t>蓝威斯顿薯条  冷冻薯条 2kg包邮</t>
   </si>
   <si>
@@ -802,9 +700,6 @@
     <t>辽宁 沈阳</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a45</t>
-  </si>
-  <si>
     <t>【金龙壶-黄炸条】连城红心地瓜干7元/250克红薯条香酥地瓜条</t>
   </si>
   <si>
@@ -814,9 +709,6 @@
     <t>福建 龙岩</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a46</t>
-  </si>
-  <si>
     <t>金晔地瓜干片300g 山东特产农家自制 原汁原味无添加红薯干番薯干</t>
   </si>
   <si>
@@ -826,9 +718,6 @@
     <t>山东 济南</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a47</t>
-  </si>
-  <si>
     <t>红薯干脆地瓜干500g番薯干片粗粮健康办公室休闲食品零食小吃特产</t>
   </si>
   <si>
@@ -838,9 +727,6 @@
     <t>福建 龙岩</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a48</t>
-  </si>
-  <si>
     <t>山芋仔迷你日式小紫薯冷冻地瓜仔粗粮450g/袋</t>
   </si>
   <si>
@@ -850,9 +736,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a49</t>
-  </si>
-  <si>
     <t>连城地瓜干水晶薯棒500g包邮独立小包装红薯甘薯番薯仔特产零食</t>
   </si>
   <si>
@@ -862,9 +745,6 @@
     <t>福建 龙岩</t>
   </si>
   <si>
-    <t>5c32a8f378d52cb9ce7b7a4a</t>
-  </si>
-  <si>
     <t>赣南特产兴国盘古山倒蒸红薯干自制纯正天然软糯甜零添加两份包邮</t>
   </si>
   <si>
@@ -875,6 +755,14 @@
   </si>
   <si>
     <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,18 +1101,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1244,10 +1133,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>246</v>
+      </c>
+      <c r="H1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>48533224</v>
       </c>
@@ -1269,8 +1164,14 @@
       <c r="G2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>48545734</v>
       </c>
@@ -1292,8 +1193,14 @@
       <c r="G3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>48543834</v>
       </c>
@@ -1315,8 +1222,14 @@
       <c r="G4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>48578229</v>
       </c>
@@ -1338,8 +1251,14 @@
       <c r="G5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>48607694</v>
       </c>
@@ -1361,8 +1280,14 @@
       <c r="G6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>48616763</v>
       </c>
@@ -1384,8 +1309,14 @@
       <c r="G7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>48660824</v>
       </c>
@@ -1407,8 +1338,14 @@
       <c r="G8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>48660827</v>
       </c>
@@ -1430,8 +1367,14 @@
       <c r="G9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>48660832</v>
       </c>
@@ -1453,8 +1396,14 @@
       <c r="G10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>48660834</v>
       </c>
@@ -1476,8 +1425,14 @@
       <c r="G11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>48547104</v>
       </c>
@@ -1499,8 +1454,14 @@
       <c r="G12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>48563444</v>
       </c>
@@ -1522,8 +1483,14 @@
       <c r="G13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>48575600</v>
       </c>
@@ -1545,8 +1512,14 @@
       <c r="G14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>48583534</v>
       </c>
@@ -1568,8 +1541,14 @@
       <c r="G15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>48588696</v>
       </c>
@@ -1591,8 +1570,14 @@
       <c r="G16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>48596522</v>
       </c>
@@ -1614,8 +1599,14 @@
       <c r="G17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>48614039</v>
       </c>
@@ -1637,8 +1628,14 @@
       <c r="G18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>48613776</v>
       </c>
@@ -1660,8 +1657,14 @@
       <c r="G19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>48645105</v>
       </c>
@@ -1683,8 +1686,14 @@
       <c r="G20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>48645108</v>
       </c>
@@ -1706,8 +1715,14 @@
       <c r="G21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>48645111</v>
       </c>
@@ -1729,8 +1744,14 @@
       <c r="G22">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>48645112</v>
       </c>
@@ -1752,8 +1773,14 @@
       <c r="G23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>48645113</v>
       </c>
@@ -1775,8 +1802,14 @@
       <c r="G24">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>48645383</v>
       </c>
@@ -1798,8 +1831,14 @@
       <c r="G25">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>48652753</v>
       </c>
@@ -1821,8 +1860,14 @@
       <c r="G26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>48652758</v>
       </c>
@@ -1844,8 +1889,14 @@
       <c r="G27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>48652775</v>
       </c>
@@ -1867,8 +1918,14 @@
       <c r="G28">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>48652949</v>
       </c>
@@ -1890,8 +1947,14 @@
       <c r="G29">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>48652953</v>
       </c>
@@ -1913,8 +1976,14 @@
       <c r="G30">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>48660571</v>
       </c>
@@ -1936,8 +2005,14 @@
       <c r="G31">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>48665536</v>
       </c>
@@ -1959,8 +2034,14 @@
       <c r="G32">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>46622290</v>
       </c>
@@ -1982,8 +2063,14 @@
       <c r="G33">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>46641329</v>
       </c>
@@ -2005,8 +2092,14 @@
       <c r="G34">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>46648335</v>
       </c>
@@ -2028,8 +2121,14 @@
       <c r="G35">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>46694474</v>
       </c>
@@ -2051,8 +2150,14 @@
       <c r="G36">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>46693522</v>
       </c>
@@ -2074,8 +2179,14 @@
       <c r="G37">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>46735547</v>
       </c>
@@ -2097,8 +2208,14 @@
       <c r="G38">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>46517134</v>
       </c>
@@ -2120,8 +2237,14 @@
       <c r="G39">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>46517140</v>
       </c>
@@ -2143,8 +2266,14 @@
       <c r="G40">
         <v>1000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>45241233</v>
       </c>
@@ -2166,16 +2295,22 @@
       <c r="G41">
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>45241234</v>
+      </c>
+      <c r="B42" t="s">
         <v>126</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
       </c>
       <c r="D42" s="1">
         <v>13.8</v>
@@ -2184,21 +2319,27 @@
         <v>13.8</v>
       </c>
       <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>45241235</v>
+      </c>
+      <c r="B43" t="s">
         <v>129</v>
       </c>
-      <c r="G42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
         <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" t="s">
-        <v>132</v>
       </c>
       <c r="D43" s="1">
         <v>19.8</v>
@@ -2207,21 +2348,27 @@
         <v>35</v>
       </c>
       <c r="F43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>45241236</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
         <v>133</v>
-      </c>
-      <c r="G43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" t="s">
-        <v>136</v>
       </c>
       <c r="D44" s="1">
         <v>9.9</v>
@@ -2230,21 +2377,27 @@
         <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G44">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>138</v>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>45241237</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="1">
         <v>39.799999999999997</v>
@@ -2253,21 +2406,27 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G45">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>142</v>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>45241238</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1">
         <v>29.8</v>
@@ -2276,21 +2435,27 @@
         <v>29.8</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G46">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>146</v>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45241239</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1">
         <v>59</v>
@@ -2299,21 +2464,27 @@
         <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G47">
         <v>1000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>150</v>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>45241240</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1">
         <v>6</v>
@@ -2322,21 +2493,27 @@
         <v>6.8</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G48">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>154</v>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>45241241</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D49" s="1">
         <v>25</v>
@@ -2345,21 +2522,27 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>158</v>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>45241242</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1">
         <v>7.5</v>
@@ -2368,21 +2551,27 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G50">
         <v>1000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>162</v>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>45241243</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D51" s="1">
         <v>45</v>
@@ -2391,21 +2580,27 @@
         <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G51">
         <v>1000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>166</v>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>45241244</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D52" s="1">
         <v>13.8</v>
@@ -2414,21 +2609,27 @@
         <v>31.8</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G52">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>170</v>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>45241245</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1">
         <v>4.99</v>
@@ -2437,21 +2638,27 @@
         <v>5.9</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G53">
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>174</v>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>45241246</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D54" s="1">
         <v>31.68</v>
@@ -2460,21 +2667,27 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G54">
         <v>1000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>178</v>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>45241247</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D55" s="1">
         <v>22.98</v>
@@ -2483,21 +2696,27 @@
         <v>39.799999999999997</v>
       </c>
       <c r="F55" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G55">
         <v>1000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>182</v>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>45241248</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D56" s="1">
         <v>31.6</v>
@@ -2506,21 +2725,27 @@
         <v>63.8</v>
       </c>
       <c r="F56" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G56">
         <v>1000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>186</v>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>45241249</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D57" s="1">
         <v>38</v>
@@ -2529,21 +2754,27 @@
         <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G57">
         <v>1000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>190</v>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>45241250</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D58" s="1">
         <v>10</v>
@@ -2552,21 +2783,27 @@
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="G58">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>194</v>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>45241251</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D59" s="1">
         <v>15.8</v>
@@ -2575,21 +2812,27 @@
         <v>18.8</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G59">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>198</v>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>45241252</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D60" s="1">
         <v>38.799999999999997</v>
@@ -2598,21 +2841,27 @@
         <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G60">
         <v>1000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>202</v>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>45241253</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D61" s="1">
         <v>19.8</v>
@@ -2621,21 +2870,27 @@
         <v>26.8</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G61">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>206</v>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>45241254</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D62" s="1">
         <v>39.5</v>
@@ -2644,21 +2899,27 @@
         <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G62">
         <v>1000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>210</v>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>45241255</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D63" s="1">
         <v>8.9</v>
@@ -2667,21 +2928,27 @@
         <v>17.8</v>
       </c>
       <c r="F63" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G63">
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>214</v>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>45241256</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D64" s="1">
         <v>12.9</v>
@@ -2690,21 +2957,27 @@
         <v>12.9</v>
       </c>
       <c r="F64" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G64">
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>218</v>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>45241257</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D65" s="1">
         <v>25.5</v>
@@ -2713,21 +2986,27 @@
         <v>65.5</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="G65">
         <v>1000</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>222</v>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>45241258</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D66" s="1">
         <v>8.6</v>
@@ -2736,21 +3015,27 @@
         <v>17.2</v>
       </c>
       <c r="F66" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G66">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>226</v>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>45241259</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D67" s="1">
         <v>12.9</v>
@@ -2759,21 +3044,27 @@
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="G67">
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>230</v>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>45241260</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D68" s="1">
         <v>38.4</v>
@@ -2782,21 +3073,27 @@
         <v>38.4</v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G68">
         <v>1000</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>234</v>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>45241261</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D69" s="1">
         <v>17.2</v>
@@ -2805,21 +3102,27 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="G69">
         <v>1000</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>238</v>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>45241262</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="D70" s="1">
         <v>24</v>
@@ -2828,21 +3131,27 @@
         <v>66</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="G70">
         <v>1000</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>242</v>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>45241263</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D71" s="1">
         <v>18</v>
@@ -2851,21 +3160,27 @@
         <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G71">
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>246</v>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>45241264</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D72" s="1">
         <v>13</v>
@@ -2874,21 +3189,27 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="G72">
         <v>1000</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>250</v>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>45241265</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D73" s="1">
         <v>9.9</v>
@@ -2897,21 +3218,27 @@
         <v>9.9</v>
       </c>
       <c r="F73" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G73">
         <v>1000</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>254</v>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>45241266</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="D74" s="1">
         <v>25</v>
@@ -2920,21 +3247,27 @@
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="G74">
         <v>1000</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>258</v>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>45241267</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="D75" s="1">
         <v>25</v>
@@ -2943,21 +3276,27 @@
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="G75">
         <v>1000</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>262</v>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>45241268</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="D76" s="1">
         <v>7</v>
@@ -2966,21 +3305,27 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="G76">
         <v>1000</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>266</v>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>45241269</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D77" s="1">
         <v>9.9</v>
@@ -2989,21 +3334,27 @@
         <v>9.9</v>
       </c>
       <c r="F77" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="G77">
         <v>1000</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>270</v>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>45241270</v>
       </c>
       <c r="B78" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="D78" s="1">
         <v>10.99</v>
@@ -3012,21 +3363,27 @@
         <v>21.98</v>
       </c>
       <c r="F78" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="G78">
         <v>1000</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>274</v>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>45241271</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="D79" s="1">
         <v>8.8000000000000007</v>
@@ -3035,21 +3392,27 @@
         <v>15.8</v>
       </c>
       <c r="F79" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G79">
         <v>1000</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>278</v>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>45241272</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="D80" s="1">
         <v>7.5</v>
@@ -3058,21 +3421,27 @@
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G80">
         <v>1000</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>282</v>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>45241273</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D81" s="1">
         <v>12.5</v>
@@ -3081,10 +3450,16 @@
         <v>12.5</v>
       </c>
       <c r="F81" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="G81">
         <v>1000</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
